--- a/Docs/SugarMotorCalculator.xlsx
+++ b/Docs/SugarMotorCalculator.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -498,7 +498,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,7 +719,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6">
@@ -733,7 +733,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="6">
@@ -809,5 +809,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>